--- a/ComparedResults/Full_Comparison.xlsx
+++ b/ComparedResults/Full_Comparison.xlsx
@@ -11,6 +11,7 @@
     <sheet name="OperatorChanges" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="TripsComparison" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="HoursComparison" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="LeaseComparison" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1389,4 +1390,355 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="38" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>PARTNER</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>PREVIOUS</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>LATEST</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>CHANGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>AARON TRANSPORTATION</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>BUFFINGTON TRANSPORTATION LLC</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>DIAMOND HILL TRANSPORTATION LLC</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Fowler Senior Transit LLC</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>GET CARE TRANSIT LLC</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>HIGHER-SELF LLC</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>430</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>430</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>HUGO FAMILY TRANSPORTATION</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>JORGE TRANSPORTATION</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>MADE EAZY LLC</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>430</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>430</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>MONAI&amp;SON'S LLC</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>NEMIA CARE LLC</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>1180</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>1180</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>NORTHCAL TRANSPORTATION LLC</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>PEOPLE FIRST TRANSIT LLC</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>QUICK RIDES CA</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>REM Solutions LLC</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>430</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>430</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>SYNERGY MEDICAL TRANSPORTATION LLC</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>1020</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>TRI VALLEY TRANSPORTATION INC.</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>416.72</v>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>416.72</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>Transit LTM LLC</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/ComparedResults/Full_Comparison.xlsx
+++ b/ComparedResults/Full_Comparison.xlsx
@@ -512,13 +512,13 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>3130</v>
+        <v>3307</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>3074</v>
+        <v>3194</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>-56</v>
+        <v>-113</v>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
@@ -533,13 +533,13 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>2901.531</v>
+        <v>3060.467</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>2894.622</v>
+        <v>2930.753</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>-6.908999999999651</v>
+        <v>-129.7139999999999</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
@@ -554,17 +554,17 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>No Change</t>
+        <v>-4</v>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>Decreased</t>
         </is>
       </c>
     </row>
@@ -596,13 +596,13 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>93346.83399586467</v>
+        <v>99824.99489740601</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>92962.37255520678</v>
+        <v>94946.59930986843</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>-384.4614406578912</v>
+        <v>-4878.395587537583</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,7 +629,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
     <col width="38" customWidth="1" min="2" max="2"/>
     <col width="9" customWidth="1" min="3" max="3"/>
   </cols>
@@ -654,7 +654,7 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>BANKS, LENARD</t>
+          <t>SILVA PAUL</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>GIBBS, SAMUEL</t>
+          <t>SILVA, PAUL</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -680,6 +680,108 @@
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>BUFFINGTON, BLAKE</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>TRI VALLEY TRANSPORTATION INC.</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SAIFON WISETMEE</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>TRI VALLEY TRANSPORTATION INC.</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>BROWN, JAMES</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>TRULY TRANSPORT LLC</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>DEL CASTILLO, ABEL</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>TRI VALLEY TRANSPORTATION INC.</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>SALGUERO, JORGE</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>TRI VALLEY TRANSPORTATION INC.</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>COLEMAN, SHAWN</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>TRULY TRANSPORT LLC</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -696,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -739,13 +841,13 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>-5</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="3">
@@ -755,13 +857,13 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>1</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4">
@@ -771,13 +873,13 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -787,13 +889,13 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>838</v>
+        <v>943</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>786</v>
+        <v>933</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>-52</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="6">
@@ -803,13 +905,13 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -819,13 +921,13 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>-7</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="8">
@@ -835,13 +937,13 @@
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>90</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>-11</v>
+        <v>81</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -851,13 +953,13 @@
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -867,13 +969,13 @@
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>107</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>-15</v>
+        <v>120</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="11">
@@ -883,13 +985,13 @@
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>84</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>29</v>
+        <v>87</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>-11</v>
       </c>
     </row>
     <row r="12">
@@ -899,13 +1001,13 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>-9</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="13">
@@ -915,13 +1017,13 @@
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>246</v>
+        <v>190</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>239</v>
-      </c>
-      <c r="D13" s="4" t="n">
-        <v>-7</v>
+        <v>229</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="14">
@@ -931,13 +1033,13 @@
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>-19</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="15">
@@ -947,13 +1049,13 @@
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>220</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>36</v>
+        <v>151</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>-32</v>
       </c>
     </row>
     <row r="16">
@@ -963,13 +1065,13 @@
         </is>
       </c>
       <c r="B16" s="3" t="n">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>120</v>
-      </c>
-      <c r="D16" s="4" t="n">
-        <v>-19</v>
+        <v>142</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -979,13 +1081,13 @@
         </is>
       </c>
       <c r="B17" s="3" t="n">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>-30</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="18">
@@ -995,13 +1097,13 @@
         </is>
       </c>
       <c r="B18" s="3" t="n">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>225</v>
-      </c>
-      <c r="D18" s="3" t="n">
-        <v>0</v>
+        <v>231</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="19">
@@ -1011,13 +1113,13 @@
         </is>
       </c>
       <c r="B19" s="3" t="n">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>90</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>2</v>
+        <v>72</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>-7</v>
       </c>
     </row>
     <row r="20">
@@ -1027,13 +1129,29 @@
         </is>
       </c>
       <c r="B20" s="3" t="n">
-        <v>162</v>
+        <v>342</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>166</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>4</v>
+        <v>178</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>-164</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>TRULY TRANSPORT LLC</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>79</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>-45</v>
       </c>
     </row>
   </sheetData>
@@ -1047,7 +1165,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1057,8 +1175,8 @@
   <cols>
     <col width="38" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="9" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1090,13 +1208,13 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>90.19</v>
+        <v>104.02</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>102.901</v>
+        <v>104.21</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>12.711</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="3">
@@ -1106,13 +1224,13 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>94.249</v>
+        <v>55.08</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>92.717</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>-1.531999999999996</v>
+        <v>95.09999999999999</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>40.02</v>
       </c>
     </row>
     <row r="4">
@@ -1122,13 +1240,13 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>91.634</v>
+        <v>102.24</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>98.834</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>7.200000000000003</v>
+        <v>100.59</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>-1.65</v>
       </c>
     </row>
     <row r="5">
@@ -1138,13 +1256,13 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>859.323</v>
+        <v>894.1799999999999</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>841.917</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>-17.40599999999995</v>
+        <v>934.38</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>40.2</v>
       </c>
     </row>
     <row r="6">
@@ -1154,13 +1272,13 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>106.428</v>
+        <v>84.37</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>93.691</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>-12.73699999999999</v>
+        <v>87.8</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3.43</v>
       </c>
     </row>
     <row r="7">
@@ -1170,13 +1288,13 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>119.749</v>
+        <v>118.66</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>119.456</v>
+        <v>71.7</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>-0.2929999999999922</v>
+        <v>-46.96</v>
       </c>
     </row>
     <row r="8">
@@ -1186,13 +1304,13 @@
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>108.054</v>
+        <v>116.87</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>112.497</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>4.442999999999998</v>
+        <v>110.45</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>-6.42</v>
       </c>
     </row>
     <row r="9">
@@ -1202,13 +1320,13 @@
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>82.015</v>
+        <v>102.37</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>103.197</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>21.182</v>
+        <v>100.86</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>-1.51</v>
       </c>
     </row>
     <row r="10">
@@ -1218,13 +1336,13 @@
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>111.383</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>99.76600000000001</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>-11.61699999999999</v>
+        <v>99.67</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>30.57</v>
       </c>
     </row>
     <row r="11">
@@ -1234,13 +1352,13 @@
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>62.386</v>
+        <v>89.87</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>85.931</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>23.54499999999999</v>
+        <v>82.94</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>-6.93</v>
       </c>
     </row>
     <row r="12">
@@ -1250,13 +1368,13 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>132.646</v>
+        <v>135.82</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>99.629</v>
+        <v>127.25</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>-33.01699999999998</v>
+        <v>-8.57</v>
       </c>
     </row>
     <row r="13">
@@ -1266,13 +1384,13 @@
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>167.798</v>
+        <v>126.54</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>164.165</v>
-      </c>
-      <c r="D13" s="4" t="n">
-        <v>-3.63300000000001</v>
+        <v>152.55</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>26.01</v>
       </c>
     </row>
     <row r="14">
@@ -1282,13 +1400,13 @@
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>97.66800000000001</v>
+        <v>100.28</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>98.634</v>
+        <v>100.6</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.965999999999994</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="15">
@@ -1298,13 +1416,13 @@
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>77.301</v>
+        <v>73.95</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>110.425</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>33.124</v>
+        <v>63.85</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>-10.1</v>
       </c>
     </row>
     <row r="16">
@@ -1314,13 +1432,13 @@
         </is>
       </c>
       <c r="B16" s="3" t="n">
-        <v>174.113</v>
+        <v>171.32</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>159.764</v>
+        <v>170.44</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>-14.34899999999999</v>
+        <v>-0.88</v>
       </c>
     </row>
     <row r="17">
@@ -1330,13 +1448,13 @@
         </is>
       </c>
       <c r="B17" s="3" t="n">
-        <v>107.912</v>
+        <v>87.66</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>101.404</v>
+        <v>64.68000000000001</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>-6.507999999999996</v>
+        <v>-22.98</v>
       </c>
     </row>
     <row r="18">
@@ -1346,13 +1464,13 @@
         </is>
       </c>
       <c r="B18" s="3" t="n">
-        <v>245.651</v>
+        <v>242.2</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>232.918</v>
+        <v>241.34</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>-12.733</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="19">
@@ -1362,13 +1480,13 @@
         </is>
       </c>
       <c r="B19" s="3" t="n">
-        <v>100.401</v>
+        <v>95.86</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>100</v>
+        <v>95.61</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>-0.4009999999999962</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="20">
@@ -1378,13 +1496,29 @@
         </is>
       </c>
       <c r="B20" s="3" t="n">
-        <v>72.63</v>
+        <v>181.61</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>76.776</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>4.146000000000001</v>
+        <v>78.09</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>-103.52</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>TRULY TRANSPORT LLC</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>108.45</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>48.65</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>-59.8</v>
       </c>
     </row>
   </sheetData>
@@ -1398,7 +1532,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1409,7 +1543,7 @@
     <col width="38" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1457,13 +1591,13 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>590</v>
+        <v>295</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>590</v>
       </c>
-      <c r="D3" s="3" t="n">
-        <v>0</v>
+      <c r="D3" s="5" t="n">
+        <v>295</v>
       </c>
     </row>
     <row r="4">
@@ -1569,13 +1703,13 @@
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>590</v>
+        <v>295</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>590</v>
       </c>
-      <c r="D10" s="3" t="n">
-        <v>0</v>
+      <c r="D10" s="5" t="n">
+        <v>295</v>
       </c>
     </row>
     <row r="11">
@@ -1617,13 +1751,13 @@
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>1180</v>
+        <v>885</v>
       </c>
       <c r="C13" s="3" t="n">
         <v>1180</v>
       </c>
-      <c r="D13" s="3" t="n">
-        <v>0</v>
+      <c r="D13" s="5" t="n">
+        <v>295</v>
       </c>
     </row>
     <row r="14">
@@ -1713,28 +1847,44 @@
         </is>
       </c>
       <c r="B19" s="3" t="n">
-        <v>416.72</v>
+        <v>1041.78</v>
       </c>
       <c r="C19" s="3" t="n">
         <v>416.72</v>
       </c>
-      <c r="D19" s="3" t="n">
-        <v>0</v>
+      <c r="D19" s="4" t="n">
+        <v>-625.0599999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
+          <t>TRULY TRANSPORT LLC</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>295</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>-295</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
           <t>Transit LTM LLC</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
-        <v>590</v>
-      </c>
-      <c r="C20" s="3" t="n">
-        <v>590</v>
-      </c>
-      <c r="D20" s="3" t="n">
+      <c r="B21" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D21" s="3" t="n">
         <v>0</v>
       </c>
     </row>

--- a/ComparedResults/Full_Comparison.xlsx
+++ b/ComparedResults/Full_Comparison.xlsx
@@ -14,6 +14,7 @@
     <sheet name="LeaseComparison" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="DatesComparison" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="MissingDates" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="OSOperators" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -41,10 +42,10 @@
       <color rgb="00FFFFFF"/>
     </font>
     <font>
-      <color rgb="00006100"/>
+      <color rgb="009C0006"/>
     </font>
     <font>
-      <color rgb="009C0006"/>
+      <color rgb="00006100"/>
     </font>
   </fonts>
   <fills count="5">
@@ -62,14 +63,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C6EFCE"/>
-        <bgColor rgb="00C6EFCE"/>
+        <fgColor rgb="00FFC7CE"/>
+        <bgColor rgb="00FFC7CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFC7CE"/>
-        <bgColor rgb="00FFC7CE"/>
+        <fgColor rgb="00C6EFCE"/>
+        <bgColor rgb="00C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -479,8 +480,8 @@
   <cols>
     <col width="11" customWidth="1" min="1" max="1"/>
     <col width="19" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="19" customWidth="1" min="4" max="4"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
@@ -518,17 +519,17 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2519</v>
+        <v>3130</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>2642</v>
+        <v>3074</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>123</v>
+        <v>-56</v>
       </c>
       <c r="E2" s="5" t="inlineStr">
         <is>
-          <t>Increased</t>
+          <t>Decreased</t>
         </is>
       </c>
     </row>
@@ -539,17 +540,17 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2646.8</v>
+        <v>2901.531</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2791.271</v>
+        <v>2894.622</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>144.4710000000005</v>
+        <v>-6.908999999999651</v>
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>Increased</t>
+          <t>Decreased</t>
         </is>
       </c>
     </row>
@@ -560,17 +561,17 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>36</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>Increased</t>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>No Change</t>
         </is>
       </c>
     </row>
@@ -602,17 +603,17 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>81085.19857000001</v>
+        <v>93346.83399586468</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>87423.87781000001</v>
+        <v>92962.37255520678</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>6338.679239999998</v>
+        <v>-384.4614406579058</v>
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
-          <t>Increased</t>
+          <t>Decreased</t>
         </is>
       </c>
     </row>
@@ -627,7 +628,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,7 +636,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="17" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="1" max="1"/>
     <col width="38" customWidth="1" min="2" max="2"/>
     <col width="9" customWidth="1" min="3" max="3"/>
   </cols>
@@ -660,15 +661,15 @@
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>SULEIMAN, AHMED</t>
+          <t>BANKS, LENARD</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>NEMIA CARE LLC</t>
-        </is>
-      </c>
-      <c r="C2" s="5" t="inlineStr">
+          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>Added</t>
         </is>
@@ -677,66 +678,15 @@
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>MUNOZ, ANA</t>
+          <t>GIBBS, SAMUEL</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>PEOPLE FIRST TRANSIT LLC</t>
+          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
         </is>
       </c>
       <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>LARA, DOUGLAS</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>MATUECCI, MATT</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>SILVA, PAUL</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -762,8 +712,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="38" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
     <col width="8" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
@@ -775,12 +725,12 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
+          <t>LATEST</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
           <t>PREVIOUS</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>LATEST</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
@@ -796,13 +746,13 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>14</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="3">
@@ -812,13 +762,13 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>-21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -828,13 +778,13 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -844,13 +794,13 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>723</v>
-      </c>
-      <c r="D5" s="6" t="n">
-        <v>-60</v>
+        <v>838</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-52</v>
       </c>
     </row>
     <row r="6">
@@ -860,13 +810,13 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>-21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -876,13 +826,13 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>13</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="8">
@@ -892,13 +842,13 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>8</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="9">
@@ -908,13 +858,13 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>92</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>59</v>
+        <v>90</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -924,13 +874,13 @@
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>104</v>
-      </c>
-      <c r="D10" s="6" t="n">
-        <v>-11</v>
+        <v>122</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-15</v>
       </c>
     </row>
     <row r="11">
@@ -940,13 +890,13 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>67</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>3</v>
+        <v>55</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="12">
@@ -956,13 +906,13 @@
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>85</v>
-      </c>
-      <c r="D12" s="6" t="n">
-        <v>-4</v>
+        <v>101</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-9</v>
       </c>
     </row>
     <row r="13">
@@ -972,13 +922,13 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>102</v>
+        <v>239</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>185</v>
+        <v>246</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>83</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="14">
@@ -988,13 +938,13 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>64</v>
-      </c>
-      <c r="D14" s="6" t="n">
-        <v>-32</v>
+        <v>124</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-19</v>
       </c>
     </row>
     <row r="15">
@@ -1004,13 +954,13 @@
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>113</v>
+        <v>220</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>147</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>34</v>
+        <v>184</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="16">
@@ -1020,13 +970,13 @@
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>9</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="17">
@@ -1036,13 +986,13 @@
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>61</v>
-      </c>
-      <c r="D17" s="6" t="n">
-        <v>-1</v>
+        <v>116</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-30</v>
       </c>
     </row>
     <row r="18">
@@ -1052,13 +1002,13 @@
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>305</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>48</v>
+        <v>225</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,13 +1018,13 @@
         </is>
       </c>
       <c r="B19" s="4" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>68</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>3</v>
+        <v>88</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1084,13 +1034,13 @@
         </is>
       </c>
       <c r="B20" s="4" t="n">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>136</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>2</v>
+        <v>162</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1113,8 +1063,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="38" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
     <col width="8" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
@@ -1126,12 +1076,12 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
+          <t>LATEST</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
           <t>PREVIOUS</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>LATEST</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
@@ -1147,13 +1097,13 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>71.54000000000001</v>
+        <v>102.9</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>89.92</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>18.38</v>
+        <v>90.19</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>12.71</v>
       </c>
     </row>
     <row r="3">
@@ -1163,13 +1113,13 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>84.84999999999999</v>
+        <v>92.72</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>83.36</v>
-      </c>
-      <c r="D3" s="6" t="n">
-        <v>-1.49</v>
+        <v>94.25</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>-1.53</v>
       </c>
     </row>
     <row r="4">
@@ -1179,13 +1129,13 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>92.93000000000001</v>
+        <v>98.83</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>0.97</v>
+        <v>91.63</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>7.2</v>
       </c>
     </row>
     <row r="5">
@@ -1195,13 +1145,13 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>865.37</v>
+        <v>841.92</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>834.39</v>
-      </c>
-      <c r="D5" s="6" t="n">
-        <v>-30.98</v>
+        <v>859.3200000000001</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-17.4</v>
       </c>
     </row>
     <row r="6">
@@ -1211,13 +1161,13 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>98.95999999999999</v>
+        <v>93.69</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>78.37</v>
-      </c>
-      <c r="D6" s="6" t="n">
-        <v>-20.59</v>
+        <v>106.43</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-12.74</v>
       </c>
     </row>
     <row r="7">
@@ -1227,13 +1177,13 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>89.77</v>
+        <v>119.46</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>108.93</v>
+        <v>119.75</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>19.16</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="8">
@@ -1243,13 +1193,13 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>94.31</v>
+        <v>112.5</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>95.8</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>1.49</v>
+        <v>108.05</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>4.45</v>
       </c>
     </row>
     <row r="9">
@@ -1259,13 +1209,13 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>28.01</v>
+        <v>103.2</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>59.09</v>
+        <v>82.02</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>21.18</v>
       </c>
     </row>
     <row r="10">
@@ -1275,13 +1225,13 @@
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>104.57</v>
+        <v>99.77</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>99.38</v>
-      </c>
-      <c r="D10" s="6" t="n">
-        <v>-5.19</v>
+        <v>111.38</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-11.61</v>
       </c>
     </row>
     <row r="11">
@@ -1291,13 +1241,13 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>84.37</v>
+        <v>85.93000000000001</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>86.13</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>1.76</v>
+        <v>62.39</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>23.54</v>
       </c>
     </row>
     <row r="12">
@@ -1307,13 +1257,13 @@
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>100.12</v>
+        <v>99.63</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>96.15000000000001</v>
-      </c>
-      <c r="D12" s="6" t="n">
-        <v>-3.97</v>
+        <v>132.65</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-33.02</v>
       </c>
     </row>
     <row r="13">
@@ -1323,13 +1273,13 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>90.79000000000001</v>
+        <v>164.16</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>159.63</v>
+        <v>167.8</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>68.84</v>
+        <v>-3.64</v>
       </c>
     </row>
     <row r="14">
@@ -1339,13 +1289,13 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>99.84</v>
+        <v>98.63</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>67.55</v>
+        <v>97.67</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-32.29</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="15">
@@ -1355,13 +1305,13 @@
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>67.34</v>
+        <v>110.42</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>76.37</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>9.029999999999999</v>
+        <v>77.3</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>33.12</v>
       </c>
     </row>
     <row r="16">
@@ -1371,13 +1321,13 @@
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>133.03</v>
+        <v>159.76</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>156.28</v>
+        <v>174.11</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>23.25</v>
+        <v>-14.35</v>
       </c>
     </row>
     <row r="17">
@@ -1387,13 +1337,13 @@
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>72.45999999999999</v>
+        <v>101.4</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>65.37</v>
-      </c>
-      <c r="D17" s="6" t="n">
-        <v>-7.09</v>
+        <v>107.91</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-6.51</v>
       </c>
     </row>
     <row r="18">
@@ -1403,13 +1353,13 @@
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>311.45</v>
+        <v>232.92</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>355.5</v>
+        <v>245.65</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>44.05</v>
+        <v>-12.73</v>
       </c>
     </row>
     <row r="19">
@@ -1419,13 +1369,13 @@
         </is>
       </c>
       <c r="B19" s="4" t="n">
-        <v>88.04000000000001</v>
+        <v>100</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>88.92</v>
+        <v>100.4</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.88</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="20">
@@ -1435,13 +1385,13 @@
         </is>
       </c>
       <c r="B20" s="4" t="n">
-        <v>69.05</v>
+        <v>76.78</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>68.23</v>
+        <v>72.63</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.82</v>
+        <v>4.15</v>
       </c>
     </row>
   </sheetData>
@@ -1464,8 +1414,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="38" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
     <col width="8" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
@@ -1477,12 +1427,12 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
+          <t>LATEST</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
           <t>PREVIOUS</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>LATEST</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
@@ -1498,13 +1448,13 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>463.58</v>
+        <v>590</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>590</v>
       </c>
-      <c r="D2" s="5" t="n">
-        <v>126.42</v>
+      <c r="D2" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1610,13 +1560,13 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>295</v>
+        <v>590</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>590</v>
       </c>
-      <c r="D9" s="5" t="n">
-        <v>295</v>
+      <c r="D9" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1754,10 +1704,10 @@
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>1450</v>
+        <v>1020</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>1450</v>
+        <v>1020</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>0</v>
@@ -1832,9 +1782,9 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>45663</v>
-      </c>
-      <c r="B2" s="5" t="inlineStr">
+        <v>45589</v>
+      </c>
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>Added</t>
         </is>
@@ -1842,9 +1792,9 @@
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>45662</v>
-      </c>
-      <c r="B3" s="5" t="inlineStr">
+        <v>45595</v>
+      </c>
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>Added</t>
         </is>
@@ -1852,9 +1802,9 @@
     </row>
     <row r="4">
       <c r="A4" s="7" t="n">
-        <v>45668</v>
-      </c>
-      <c r="B4" s="5" t="inlineStr">
+        <v>45591</v>
+      </c>
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>Added</t>
         </is>
@@ -1862,9 +1812,9 @@
     </row>
     <row r="5">
       <c r="A5" s="7" t="n">
-        <v>45667</v>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
+        <v>45588</v>
+      </c>
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>Added</t>
         </is>
@@ -1872,9 +1822,9 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="n">
-        <v>45666</v>
-      </c>
-      <c r="B6" s="5" t="inlineStr">
+        <v>45594</v>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>Added</t>
         </is>
@@ -1882,9 +1832,9 @@
     </row>
     <row r="7">
       <c r="A7" s="7" t="n">
-        <v>45659</v>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
+        <v>45586</v>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>Added</t>
         </is>
@@ -1892,9 +1842,9 @@
     </row>
     <row r="8">
       <c r="A8" s="7" t="n">
-        <v>45656</v>
-      </c>
-      <c r="B8" s="5" t="inlineStr">
+        <v>45592</v>
+      </c>
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>Added</t>
         </is>
@@ -1902,9 +1852,9 @@
     </row>
     <row r="9">
       <c r="A9" s="7" t="n">
-        <v>45664</v>
-      </c>
-      <c r="B9" s="5" t="inlineStr">
+        <v>45587</v>
+      </c>
+      <c r="B9" s="6" t="inlineStr">
         <is>
           <t>Added</t>
         </is>
@@ -1912,9 +1862,9 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="n">
-        <v>45657</v>
-      </c>
-      <c r="B10" s="5" t="inlineStr">
+        <v>45597</v>
+      </c>
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>Added</t>
         </is>
@@ -1922,9 +1872,9 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="n">
-        <v>45658</v>
-      </c>
-      <c r="B11" s="5" t="inlineStr">
+        <v>45593</v>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
         <is>
           <t>Added</t>
         </is>
@@ -1932,9 +1882,9 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="n">
-        <v>45660</v>
-      </c>
-      <c r="B12" s="5" t="inlineStr">
+        <v>45598</v>
+      </c>
+      <c r="B12" s="6" t="inlineStr">
         <is>
           <t>Added</t>
         </is>
@@ -1942,9 +1892,9 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="n">
-        <v>45669</v>
-      </c>
-      <c r="B13" s="5" t="inlineStr">
+        <v>45596</v>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
         <is>
           <t>Added</t>
         </is>
@@ -1952,9 +1902,9 @@
     </row>
     <row r="14">
       <c r="A14" s="7" t="n">
-        <v>45665</v>
-      </c>
-      <c r="B14" s="5" t="inlineStr">
+        <v>45599</v>
+      </c>
+      <c r="B14" s="6" t="inlineStr">
         <is>
           <t>Added</t>
         </is>
@@ -1962,9 +1912,9 @@
     </row>
     <row r="15">
       <c r="A15" s="7" t="n">
-        <v>45661</v>
-      </c>
-      <c r="B15" s="5" t="inlineStr">
+        <v>45590</v>
+      </c>
+      <c r="B15" s="6" t="inlineStr">
         <is>
           <t>Added</t>
         </is>
@@ -1972,9 +1922,9 @@
     </row>
     <row r="16">
       <c r="A16" s="7" t="n">
-        <v>45644</v>
-      </c>
-      <c r="B16" s="6" t="inlineStr">
+        <v>45579</v>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -1982,9 +1932,9 @@
     </row>
     <row r="17">
       <c r="A17" s="7" t="n">
-        <v>45643</v>
-      </c>
-      <c r="B17" s="6" t="inlineStr">
+        <v>45581</v>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -1992,9 +1942,9 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="n">
-        <v>45653</v>
-      </c>
-      <c r="B18" s="6" t="inlineStr">
+        <v>45584</v>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -2002,9 +1952,9 @@
     </row>
     <row r="19">
       <c r="A19" s="7" t="n">
-        <v>45647</v>
-      </c>
-      <c r="B19" s="6" t="inlineStr">
+        <v>45572</v>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -2012,9 +1962,9 @@
     </row>
     <row r="20">
       <c r="A20" s="7" t="n">
-        <v>45655</v>
-      </c>
-      <c r="B20" s="6" t="inlineStr">
+        <v>45576</v>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -2022,9 +1972,9 @@
     </row>
     <row r="21">
       <c r="A21" s="7" t="n">
-        <v>45642</v>
-      </c>
-      <c r="B21" s="6" t="inlineStr">
+        <v>45585</v>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -2032,9 +1982,9 @@
     </row>
     <row r="22">
       <c r="A22" s="7" t="n">
-        <v>45652</v>
-      </c>
-      <c r="B22" s="6" t="inlineStr">
+        <v>45583</v>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -2042,9 +1992,9 @@
     </row>
     <row r="23">
       <c r="A23" s="7" t="n">
-        <v>45651</v>
-      </c>
-      <c r="B23" s="6" t="inlineStr">
+        <v>45575</v>
+      </c>
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -2052,9 +2002,9 @@
     </row>
     <row r="24">
       <c r="A24" s="7" t="n">
-        <v>45654</v>
-      </c>
-      <c r="B24" s="6" t="inlineStr">
+        <v>45574</v>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -2062,9 +2012,9 @@
     </row>
     <row r="25">
       <c r="A25" s="7" t="n">
-        <v>45645</v>
-      </c>
-      <c r="B25" s="6" t="inlineStr">
+        <v>45580</v>
+      </c>
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -2072,9 +2022,9 @@
     </row>
     <row r="26">
       <c r="A26" s="7" t="n">
-        <v>45650</v>
-      </c>
-      <c r="B26" s="6" t="inlineStr">
+        <v>45573</v>
+      </c>
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -2082,9 +2032,9 @@
     </row>
     <row r="27">
       <c r="A27" s="7" t="n">
-        <v>45648</v>
-      </c>
-      <c r="B27" s="6" t="inlineStr">
+        <v>45577</v>
+      </c>
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -2092,9 +2042,9 @@
     </row>
     <row r="28">
       <c r="A28" s="7" t="n">
-        <v>45646</v>
-      </c>
-      <c r="B28" s="6" t="inlineStr">
+        <v>45582</v>
+      </c>
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -2102,9 +2052,9 @@
     </row>
     <row r="29">
       <c r="A29" s="7" t="n">
-        <v>45649</v>
-      </c>
-      <c r="B29" s="6" t="inlineStr">
+        <v>45578</v>
+      </c>
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -2149,4 +2099,323 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>PREVIOUS</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>LATEST</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>ALLGOOD, SCOTT</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>ALLGOOD, SCOTT</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>ALLISON, AARON</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>ALLISON, AARON</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>BOGALE, GETU</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>BOGALE, GETU</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>BROWN, LOVIE</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>BROWN, LOVIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>BUTLER, JACQUELINE</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>BUTLER, JACQUELINE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>FOWLER, ANTOINE</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>FOWLER, ANTOINE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>FUENTES, PEDRO</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>FUENTES, PEDRO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>GIBBS, SAMUEL</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>HUGO, TAMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>HUGO, TAMA</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>KEITH , CLYDE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>KEITH , CLYDE</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>LARA, DOUGLAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>LARA, DOUGLAS</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>MAINESS, RYAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>LOGAN, TROY</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>MALCOM, LANDREW</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>MAINESS, RYAN</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>MARZI, SAMI JAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>MALCOM, LANDREW</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>MOLLIQUE, ROMESHA</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>MARZI, SAMI JAN</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>ROBERTSON, SARAH</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>MOLLIQUE, ROMESHA</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>ROGERS, JAMES</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="inlineStr">
+        <is>
+          <t>ROBERTSON, SARAH</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>SILVA, PAUL</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>ROGERS, JAMES</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>STEPHENS, MARITZA</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t>STEPHENS, MARITZA</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>TILLMAN, ROSALYN</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>TILLMAN, ROSALYN</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>UMANA, DOMINGO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>UMANA, DOMINGO</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>VAUGHN, DUSTIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="inlineStr">
+        <is>
+          <t>VAUGHN, DUSTIN</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>VILCHEZ, CHARLENNE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>VILCHEZ, CHARLENNE</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>WYATT, MIGERIEA</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="inlineStr">
+        <is>
+          <t>WYATT, MIGERIEA</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/ComparedResults/Full_Comparison.xlsx
+++ b/ComparedResults/Full_Comparison.xlsx
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>3130</v>
+        <v>3195</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>3074</v>
+        <v>2987</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>-56</v>
+        <v>-208</v>
       </c>
       <c r="E2" s="5" t="inlineStr">
         <is>
@@ -540,13 +540,13 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2901.531</v>
+        <v>2749.12</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2894.622</v>
+        <v>2536.194</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>-6.908999999999651</v>
+        <v>-212.9259999999999</v>
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0</v>
@@ -603,13 +603,13 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>93346.83399586468</v>
+        <v>87315.67408645363</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>92962.37255520678</v>
+        <v>74223.82618523184</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>-384.4614406579058</v>
+        <v>-13091.84790122179</v>
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
@@ -636,7 +636,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="1" max="1"/>
     <col width="38" customWidth="1" min="2" max="2"/>
     <col width="9" customWidth="1" min="3" max="3"/>
   </cols>
@@ -661,7 +661,7 @@
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>BANKS, LENARD</t>
+          <t>SILVA, PAUL</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
@@ -678,12 +678,12 @@
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>GIBBS, SAMUEL</t>
+          <t>SULEIMAN, AHMED</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
+          <t>NEMIA CARE LLC</t>
         </is>
       </c>
       <c r="C3" s="5" t="inlineStr">
@@ -703,7 +703,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>88</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>-5</v>
+        <v>119</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -762,13 +762,13 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>179</v>
-      </c>
-      <c r="D3" s="6" t="n">
-        <v>1</v>
+        <v>189</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>-71</v>
       </c>
     </row>
     <row r="4">
@@ -778,13 +778,13 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>78</v>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>2</v>
+        <v>93</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-6</v>
       </c>
     </row>
     <row r="5">
@@ -794,13 +794,13 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>786</v>
+        <v>967</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>838</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>-52</v>
+        <v>881</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="6">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>79</v>
-      </c>
-      <c r="D6" s="6" t="n">
-        <v>18</v>
+        <v>90</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-37</v>
       </c>
     </row>
     <row r="7">
@@ -826,13 +826,13 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="8">
@@ -842,13 +842,13 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>101</v>
       </c>
-      <c r="D8" s="5" t="n">
-        <v>-11</v>
+      <c r="D8" s="6" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="9">
@@ -858,189 +858,141 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>90</v>
-      </c>
-      <c r="D9" s="6" t="n">
-        <v>26</v>
+        <v>108</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>JORGE TRANSPORTATION</t>
+          <t>MONAI&amp;SON'S LLC</t>
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>122</v>
-      </c>
-      <c r="D10" s="5" t="n">
-        <v>-15</v>
+        <v>72</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>MADE EAZY LLC</t>
+          <t>NEMIA CARE LLC</t>
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>55</v>
-      </c>
-      <c r="D11" s="6" t="n">
-        <v>29</v>
+        <v>125</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-74</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>MONAI&amp;SON'S LLC</t>
+          <t>NORTHCAL TRANSPORTATION LLC</t>
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>101</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>-9</v>
+        <v>100</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>NEMIA CARE LLC</t>
+          <t>QUICK RIDES CA</t>
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>246</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>-7</v>
+        <v>170</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>NORTHCAL TRANSPORTATION LLC</t>
+          <t>REM SOLUTIONS LLC</t>
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>124</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>-19</v>
+        <v>86</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>PEOPLE FIRST TRANSIT LLC</t>
+          <t>SYNERGY MEDICAL TRANSPORTATION LLC</t>
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>220</v>
+        <v>558</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>184</v>
-      </c>
-      <c r="D15" s="6" t="n">
-        <v>36</v>
+        <v>634</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>QUICK RIDES CA</t>
+          <t>TRANSIT LTM LLC</t>
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>139</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>-19</v>
+        <v>52</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>REM SOLUTIONS LLC</t>
+          <t>TRI VALLEY TRANSPORTATION INC.</t>
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>116</v>
+        <v>222</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="inlineStr">
-        <is>
-          <t>SYNERGY MEDICAL TRANSPORTATION LLC</t>
-        </is>
-      </c>
-      <c r="B18" s="4" t="n">
-        <v>225</v>
-      </c>
-      <c r="C18" s="4" t="n">
-        <v>225</v>
-      </c>
-      <c r="D18" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="4" t="inlineStr">
-        <is>
-          <t>TRANSIT LTM LLC</t>
-        </is>
-      </c>
-      <c r="B19" s="4" t="n">
-        <v>90</v>
-      </c>
-      <c r="C19" s="4" t="n">
-        <v>88</v>
-      </c>
-      <c r="D19" s="6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="inlineStr">
-        <is>
-          <t>TRI VALLEY TRANSPORTATION INC.</t>
-        </is>
-      </c>
-      <c r="B20" s="4" t="n">
-        <v>166</v>
-      </c>
-      <c r="C20" s="4" t="n">
-        <v>162</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>4</v>
+        <v>-149</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +1006,310 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="38" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>PARTNER</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>LATEST</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>PREVIOUS</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>CHANGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>AARON TRANSPORTATION</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>101.42</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>102.13</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>-0.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>BUFFINGTON TRANSPORTATION LLC</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>56.95</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>92.95</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>DIAMOND HILL TRANSPORTATION LLC</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>105.82</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>103.33</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>2.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>825.28</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>818.08</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>FOWLER SENIOR TRANSIT LLC</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>105.7</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-60.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>GET CARE TRANSIT LLC</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>108.25</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>119.8</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-11.55</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>HIGHER-SELF LLC</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>109.3</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>102.94</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>6.36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>HUGO FAMILY TRANSPORTATION</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>49.95</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-35.75</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>MONAI&amp;SON'S LLC</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>94.45</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>80.45</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>NEMIA CARE LLC</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>35.53</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>81.95999999999999</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-46.43</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>NORTHCAL TRANSPORTATION LLC</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>93.65000000000001</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>QUICK RIDES CA</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>204.54</v>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>183.57</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>20.97</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>REM SOLUTIONS LLC</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="n">
+        <v>125.55</v>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>87.55</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>SYNERGY MEDICAL TRANSPORTATION LLC</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>451.15</v>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>554.8200000000001</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-103.67</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>TRANSIT LTM LLC</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="n">
+        <v>98.83</v>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>67.13</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>TRI VALLEY TRANSPORTATION INC.</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>30.33</v>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-44.97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1097,13 +1352,13 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>102.9</v>
+        <v>615</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>90.19</v>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>12.71</v>
+        <v>615</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1113,13 +1368,13 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>92.72</v>
+        <v>615</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>94.25</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>-1.53</v>
+        <v>615</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1129,13 +1384,13 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>98.83</v>
+        <v>615</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>91.63</v>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>7.2</v>
+        <v>615</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1145,29 +1400,29 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>841.92</v>
+        <v>0</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>859.3200000000001</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>-17.4</v>
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>FOWLER SENIOR TRANSIT LLC</t>
+          <t>Fowler Senior Transit LLC</t>
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>93.69</v>
+        <v>307.5</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>106.43</v>
+        <v>615</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-12.74</v>
+        <v>-307.5</v>
       </c>
     </row>
     <row r="7">
@@ -1177,13 +1432,13 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>119.46</v>
+        <v>0</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>119.75</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>-0.29</v>
+        <v>0</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1193,13 +1448,13 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>112.5</v>
+        <v>455</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>108.05</v>
-      </c>
-      <c r="D8" s="6" t="n">
-        <v>4.45</v>
+        <v>455</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,13 +1464,13 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>103.2</v>
+        <v>615</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>82.02</v>
-      </c>
-      <c r="D9" s="6" t="n">
-        <v>21.18</v>
+        <v>615</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1225,523 +1480,140 @@
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>99.77</v>
+        <v>0</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>111.38</v>
-      </c>
-      <c r="D10" s="5" t="n">
-        <v>-11.61</v>
+        <v>0</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>MADE EAZY LLC</t>
+          <t>MONAI&amp;SON'S LLC</t>
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>85.93000000000001</v>
+        <v>455</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>62.39</v>
-      </c>
-      <c r="D11" s="6" t="n">
-        <v>23.54</v>
+        <v>615</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-160</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>MONAI&amp;SON'S LLC</t>
+          <t>NEMIA CARE LLC</t>
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>99.63</v>
+        <v>615</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>132.65</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>-33.02</v>
+        <v>615</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>NEMIA CARE LLC</t>
+          <t>NORTHCAL TRANSPORTATION LLC</t>
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>164.16</v>
+        <v>615</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>167.8</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>-3.64</v>
+        <v>615</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>NORTHCAL TRANSPORTATION LLC</t>
+          <t>QUICK RIDES CA</t>
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>98.63</v>
+        <v>615</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>97.67</v>
-      </c>
-      <c r="D14" s="6" t="n">
-        <v>0.96</v>
+        <v>615</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>PEOPLE FIRST TRANSIT LLC</t>
+          <t>REM Solutions LLC</t>
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>110.42</v>
+        <v>455</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="D15" s="6" t="n">
-        <v>33.12</v>
+        <v>455</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>QUICK RIDES CA</t>
+          <t>SYNERGY MEDICAL TRANSPORTATION LLC</t>
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>159.76</v>
+        <v>1070</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>174.11</v>
+        <v>2140</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-14.35</v>
+        <v>-1070</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>REM SOLUTIONS LLC</t>
+          <t>TRI VALLEY TRANSPORTATION INC.</t>
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>101.4</v>
+        <v>416.72</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>107.91</v>
-      </c>
-      <c r="D17" s="5" t="n">
-        <v>-6.51</v>
+        <v>416.72</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>SYNERGY MEDICAL TRANSPORTATION LLC</t>
+          <t>Transit LTM LLC</t>
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>232.92</v>
+        <v>615</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>245.65</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>-12.73</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="4" t="inlineStr">
-        <is>
-          <t>TRANSIT LTM LLC</t>
-        </is>
-      </c>
-      <c r="B19" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C19" s="4" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="inlineStr">
-        <is>
-          <t>TRI VALLEY TRANSPORTATION INC.</t>
-        </is>
-      </c>
-      <c r="B20" s="4" t="n">
-        <v>76.78</v>
-      </c>
-      <c r="C20" s="4" t="n">
-        <v>72.63</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>4.15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="38" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="8" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>PARTNER</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>LATEST</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>PREVIOUS</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>CHANGE</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>AARON TRANSPORTATION</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>BUFFINGTON TRANSPORTATION LLC</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>DIAMOND HILL TRANSPORTATION LLC</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Fowler Senior Transit LLC</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>GET CARE TRANSIT LLC</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t>HIGHER-SELF LLC</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>430</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>430</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>HUGO FAMILY TRANSPORTATION</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="inlineStr">
-        <is>
-          <t>JORGE TRANSPORTATION</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="inlineStr">
-        <is>
-          <t>MADE EAZY LLC</t>
-        </is>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>430</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>430</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>MONAI&amp;SON'S LLC</t>
-        </is>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="inlineStr">
-        <is>
-          <t>NEMIA CARE LLC</t>
-        </is>
-      </c>
-      <c r="B13" s="4" t="n">
-        <v>1180</v>
-      </c>
-      <c r="C13" s="4" t="n">
-        <v>1180</v>
-      </c>
-      <c r="D13" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="inlineStr">
-        <is>
-          <t>NORTHCAL TRANSPORTATION LLC</t>
-        </is>
-      </c>
-      <c r="B14" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="C14" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="D14" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t>PEOPLE FIRST TRANSIT LLC</t>
-        </is>
-      </c>
-      <c r="B15" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="C15" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="D15" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="4" t="inlineStr">
-        <is>
-          <t>QUICK RIDES CA</t>
-        </is>
-      </c>
-      <c r="B16" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="C16" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="D16" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="4" t="inlineStr">
-        <is>
-          <t>REM Solutions LLC</t>
-        </is>
-      </c>
-      <c r="B17" s="4" t="n">
-        <v>430</v>
-      </c>
-      <c r="C17" s="4" t="n">
-        <v>430</v>
-      </c>
-      <c r="D17" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="inlineStr">
-        <is>
-          <t>SYNERGY MEDICAL TRANSPORTATION LLC</t>
-        </is>
-      </c>
-      <c r="B18" s="4" t="n">
-        <v>1020</v>
-      </c>
-      <c r="C18" s="4" t="n">
-        <v>1020</v>
+        <v>615</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="4" t="inlineStr">
-        <is>
-          <t>TRI VALLEY TRANSPORTATION INC.</t>
-        </is>
-      </c>
-      <c r="B19" s="4" t="n">
-        <v>416.72</v>
-      </c>
-      <c r="C19" s="4" t="n">
-        <v>416.72</v>
-      </c>
-      <c r="D19" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="inlineStr">
-        <is>
-          <t>Transit LTM LLC</t>
-        </is>
-      </c>
-      <c r="B20" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="C20" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="D20" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1782,7 +1654,7 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>45589</v>
+        <v>45766</v>
       </c>
       <c r="B2" s="6" t="inlineStr">
         <is>
@@ -1792,7 +1664,7 @@
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>45595</v>
+        <v>45761</v>
       </c>
       <c r="B3" s="6" t="inlineStr">
         <is>
@@ -1802,7 +1674,7 @@
     </row>
     <row r="4">
       <c r="A4" s="7" t="n">
-        <v>45591</v>
+        <v>45765</v>
       </c>
       <c r="B4" s="6" t="inlineStr">
         <is>
@@ -1812,7 +1684,7 @@
     </row>
     <row r="5">
       <c r="A5" s="7" t="n">
-        <v>45588</v>
+        <v>45759</v>
       </c>
       <c r="B5" s="6" t="inlineStr">
         <is>
@@ -1822,7 +1694,7 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="n">
-        <v>45594</v>
+        <v>45767</v>
       </c>
       <c r="B6" s="6" t="inlineStr">
         <is>
@@ -1832,7 +1704,7 @@
     </row>
     <row r="7">
       <c r="A7" s="7" t="n">
-        <v>45586</v>
+        <v>45756</v>
       </c>
       <c r="B7" s="6" t="inlineStr">
         <is>
@@ -1842,7 +1714,7 @@
     </row>
     <row r="8">
       <c r="A8" s="7" t="n">
-        <v>45592</v>
+        <v>45760</v>
       </c>
       <c r="B8" s="6" t="inlineStr">
         <is>
@@ -1852,7 +1724,7 @@
     </row>
     <row r="9">
       <c r="A9" s="7" t="n">
-        <v>45587</v>
+        <v>45762</v>
       </c>
       <c r="B9" s="6" t="inlineStr">
         <is>
@@ -1862,7 +1734,7 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="n">
-        <v>45597</v>
+        <v>45754</v>
       </c>
       <c r="B10" s="6" t="inlineStr">
         <is>
@@ -1872,7 +1744,7 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="n">
-        <v>45593</v>
+        <v>45764</v>
       </c>
       <c r="B11" s="6" t="inlineStr">
         <is>
@@ -1882,7 +1754,7 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="n">
-        <v>45598</v>
+        <v>45757</v>
       </c>
       <c r="B12" s="6" t="inlineStr">
         <is>
@@ -1892,7 +1764,7 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="n">
-        <v>45596</v>
+        <v>45763</v>
       </c>
       <c r="B13" s="6" t="inlineStr">
         <is>
@@ -1902,7 +1774,7 @@
     </row>
     <row r="14">
       <c r="A14" s="7" t="n">
-        <v>45599</v>
+        <v>45758</v>
       </c>
       <c r="B14" s="6" t="inlineStr">
         <is>
@@ -1912,7 +1784,7 @@
     </row>
     <row r="15">
       <c r="A15" s="7" t="n">
-        <v>45590</v>
+        <v>45755</v>
       </c>
       <c r="B15" s="6" t="inlineStr">
         <is>
@@ -1922,7 +1794,7 @@
     </row>
     <row r="16">
       <c r="A16" s="7" t="n">
-        <v>45579</v>
+        <v>45741</v>
       </c>
       <c r="B16" s="5" t="inlineStr">
         <is>
@@ -1932,7 +1804,7 @@
     </row>
     <row r="17">
       <c r="A17" s="7" t="n">
-        <v>45581</v>
+        <v>45746</v>
       </c>
       <c r="B17" s="5" t="inlineStr">
         <is>
@@ -1942,7 +1814,7 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="n">
-        <v>45584</v>
+        <v>45753</v>
       </c>
       <c r="B18" s="5" t="inlineStr">
         <is>
@@ -1952,7 +1824,7 @@
     </row>
     <row r="19">
       <c r="A19" s="7" t="n">
-        <v>45572</v>
+        <v>45743</v>
       </c>
       <c r="B19" s="5" t="inlineStr">
         <is>
@@ -1962,7 +1834,7 @@
     </row>
     <row r="20">
       <c r="A20" s="7" t="n">
-        <v>45576</v>
+        <v>45742</v>
       </c>
       <c r="B20" s="5" t="inlineStr">
         <is>
@@ -1972,7 +1844,7 @@
     </row>
     <row r="21">
       <c r="A21" s="7" t="n">
-        <v>45585</v>
+        <v>45748</v>
       </c>
       <c r="B21" s="5" t="inlineStr">
         <is>
@@ -1982,7 +1854,7 @@
     </row>
     <row r="22">
       <c r="A22" s="7" t="n">
-        <v>45583</v>
+        <v>45752</v>
       </c>
       <c r="B22" s="5" t="inlineStr">
         <is>
@@ -1992,7 +1864,7 @@
     </row>
     <row r="23">
       <c r="A23" s="7" t="n">
-        <v>45575</v>
+        <v>45740</v>
       </c>
       <c r="B23" s="5" t="inlineStr">
         <is>
@@ -2002,7 +1874,7 @@
     </row>
     <row r="24">
       <c r="A24" s="7" t="n">
-        <v>45574</v>
+        <v>45744</v>
       </c>
       <c r="B24" s="5" t="inlineStr">
         <is>
@@ -2012,7 +1884,7 @@
     </row>
     <row r="25">
       <c r="A25" s="7" t="n">
-        <v>45580</v>
+        <v>45751</v>
       </c>
       <c r="B25" s="5" t="inlineStr">
         <is>
@@ -2022,7 +1894,7 @@
     </row>
     <row r="26">
       <c r="A26" s="7" t="n">
-        <v>45573</v>
+        <v>45745</v>
       </c>
       <c r="B26" s="5" t="inlineStr">
         <is>
@@ -2032,7 +1904,7 @@
     </row>
     <row r="27">
       <c r="A27" s="7" t="n">
-        <v>45577</v>
+        <v>45750</v>
       </c>
       <c r="B27" s="5" t="inlineStr">
         <is>
@@ -2042,7 +1914,7 @@
     </row>
     <row r="28">
       <c r="A28" s="7" t="n">
-        <v>45582</v>
+        <v>45747</v>
       </c>
       <c r="B28" s="5" t="inlineStr">
         <is>
@@ -2052,7 +1924,7 @@
     </row>
     <row r="29">
       <c r="A29" s="7" t="n">
-        <v>45578</v>
+        <v>45749</v>
       </c>
       <c r="B29" s="5" t="inlineStr">
         <is>
@@ -2107,7 +1979,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2158,262 +2030,274 @@
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>BOGALE, GETU</t>
+          <t>BANKS, LENARD</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>BOGALE, GETU</t>
+          <t>BANKS, LENARD</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>BROWN, LOVIE</t>
+          <t>BOGALE, GETU</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>BROWN, LOVIE</t>
+          <t>BOGALE, GETU</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>BUTLER, JACQUELINE</t>
+          <t>BROWN, GREG</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>BUTLER, JACQUELINE</t>
+          <t>BROWN, GREG</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>FOWLER, ANTOINE</t>
+          <t>BROWN, LOVIE</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>FOWLER, ANTOINE</t>
+          <t>BROWN, LOVIE</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>FUENTES, PEDRO</t>
+          <t>BUTLER, JACQUELINE</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>FUENTES, PEDRO</t>
+          <t>BUTLER, JACQUELINE</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>GIBBS, SAMUEL</t>
+          <t>EVANS, JOHN</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>HUGO, TAMA</t>
+          <t>EVANS, JOHN</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>HUGO, TAMA</t>
+          <t>FOWLER, ANTOINE</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>KEITH , CLYDE</t>
+          <t>FOWLER, ANTOINE</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>KEITH , CLYDE</t>
+          <t>FUENTES, PEDRO</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>LARA, DOUGLAS</t>
+          <t>HUGO, TAMA</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>LARA, DOUGLAS</t>
+          <t>HUGO, TAMA</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>MAINESS, RYAN</t>
+          <t>JENNINGS, WILLIAM</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>LOGAN, TROY</t>
+          <t>JENNINGS, WILLIAM</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>MALCOM, LANDREW</t>
+          <t>KEITH , CLYDE</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
+          <t>KEITH , CLYDE</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
           <t>MAINESS, RYAN</t>
-        </is>
-      </c>
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>MARZI, SAMI JAN</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
+          <t>MAINESS, RYAN</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
           <t>MALCOM, LANDREW</t>
-        </is>
-      </c>
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>MOLLIQUE, ROMESHA</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
+          <t>MALCOM, LANDREW</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
           <t>MARZI, SAMI JAN</t>
-        </is>
-      </c>
-      <c r="B16" s="4" t="inlineStr">
-        <is>
-          <t>ROBERTSON, SARAH</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
+          <t>MARZI, SAMI JAN</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
           <t>MOLLIQUE, ROMESHA</t>
-        </is>
-      </c>
-      <c r="B17" s="4" t="inlineStr">
-        <is>
-          <t>ROGERS, JAMES</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>ROBERTSON, SARAH</t>
+          <t>MOLLIQUE, ROMESHA</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>SILVA, PAUL</t>
+          <t>OXCAL, SERGIO</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
+          <t>OXCAL, SERGIO</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
           <t>ROGERS, JAMES</t>
-        </is>
-      </c>
-      <c r="B19" s="4" t="inlineStr">
-        <is>
-          <t>STEPHENS, MARITZA</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>STEPHENS, MARITZA</t>
+          <t>ROGERS, JAMES</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>TILLMAN, ROSALYN</t>
+          <t>SILVA, PAUL</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>TILLMAN, ROSALYN</t>
+          <t>SILVA, PAUL</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>UMANA, DOMINGO</t>
+          <t>STEPHENS, MARITZA</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>UMANA, DOMINGO</t>
+          <t>STEPHENS, MARITZA</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>VAUGHN, DUSTIN</t>
+          <t>TILLMAN, ROSALYN</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>VAUGHN, DUSTIN</t>
+          <t>TILLMAN, ROSALYN</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>VILCHEZ, CHARLENNE</t>
+          <t>UMANA, DOMINGO</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>VILCHEZ, CHARLENNE</t>
+          <t>UMANA, DOMINGO</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>WYATT, MIGERIEA</t>
+          <t>VAUGHN, DUSTIN</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>WYATT, MIGERIEA</t>
-        </is>
-      </c>
-      <c r="B25" s="4" t="inlineStr"/>
+          <t>VAUGHN, DUSTIN</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>VILCHEZ, CHARLENNE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="inlineStr">
+        <is>
+          <t>VILCHEZ, CHARLENNE</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
